--- a/query_config_urgent_query.xlsx
+++ b/query_config_urgent_query.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SorinoSK\School\Internship\Work\IoT\Intern-IoT-Data-Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E2E729-7221-4196-84B4-8B655C4176D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEAA5B7-E123-44E2-94CD-B8504EB57E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{8D172AA6-0848-BB43-9F68-542271628B47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8D172AA6-0848-BB43-9F68-542271628B47}"/>
   </bookViews>
   <sheets>
     <sheet name="units_to_query" sheetId="1" r:id="rId1"/>
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="11">
-        <v>44965</v>
+        <v>44958</v>
       </c>
       <c r="G2" s="12">
-        <v>44972</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
